--- a/prediction_data.xlsx
+++ b/prediction_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,10 +486,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Q_NTU_corr (kW)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>eff_NTU</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>mass (kg)</t>
         </is>
@@ -525,9 +530,12 @@
         <v>12.46</v>
       </c>
       <c r="K2" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.197</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>1.466</v>
       </c>
     </row>
@@ -538,37 +546,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="C3" t="n">
-        <v>25.54011302915807</v>
+        <v>24.08423252370503</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>53.4</v>
       </c>
       <c r="E3" t="n">
-        <v>53.5853462225201</v>
+        <v>47.73487015383358</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4626039957204372</v>
+        <v>0.4625302128262458</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4040275818067239</v>
+        <v>0.3610708991538585</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2694811187878595</v>
+        <v>0.2690585840818941</v>
       </c>
       <c r="I3" t="n">
-        <v>0.198576147394495</v>
+        <v>0.2572698143936611</v>
       </c>
       <c r="J3" t="n">
-        <v>10.68366257636318</v>
+        <v>8.454196617796081</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1603663444369975</v>
+        <v>13.08961069682083</v>
       </c>
       <c r="L3" t="n">
-        <v>1.425545668357698</v>
+        <v>0.1681047432096858</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.270736765909332</v>
       </c>
     </row>
     <row r="4">
@@ -601,9 +612,12 @@
         <v>8.52</v>
       </c>
       <c r="K4" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.314</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1.021</v>
       </c>
     </row>
@@ -614,45 +628,44 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>22.3</v>
       </c>
       <c r="C5" t="n">
-        <v>28.72754749243084</v>
+        <v>27.90363503569958</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>48.5</v>
       </c>
       <c r="E5" t="n">
-        <v>52.35628132092896</v>
+        <v>43.36978322632794</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3282628783042559</v>
+        <v>0.3283317029368315</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3790229690152056</v>
+        <v>0.3607479416925711</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4203963465060231</v>
+        <v>0.4202630791594153</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2290334862991568</v>
+        <v>0.2576310331103417</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94279980138153</v>
+        <v>7.663373032461202</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2181886873107712</v>
+        <v>17.82526828188173</v>
       </c>
       <c r="L5" t="n">
-        <v>1.029445018097681</v>
+        <v>0.2138791998358617</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9176511577394644</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>21</v>
@@ -665,10 +678,10 @@
         <v>0.525</v>
       </c>
       <c r="G6" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.49</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.356</v>
       </c>
       <c r="I6" t="n">
         <v>0.163</v>
@@ -677,10 +690,13 @@
         <v>15.82</v>
       </c>
       <c r="K6" t="n">
-        <v>0.198</v>
+        <v>16.06</v>
       </c>
       <c r="L6" t="n">
-        <v>1.466</v>
+        <v>0.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -690,45 +706,44 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>13.8</v>
       </c>
       <c r="C7" t="n">
-        <v>25.47868759743257</v>
+        <v>18.82446982658109</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>53.2</v>
       </c>
       <c r="E7" t="n">
-        <v>53.5277659134942</v>
+        <v>46.48609097922289</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5125054232274412</v>
+        <v>0.5122268947311625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4387094770249595</v>
+        <v>0.3874789056750956</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3251825665376823</v>
+        <v>0.3252173066336164</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2339123937918923</v>
+        <v>0.2960923714378163</v>
       </c>
       <c r="J7" t="n">
-        <v>11.70488525725364</v>
+        <v>10.75293685330157</v>
       </c>
       <c r="K7" t="n">
-        <v>0.161805852162645</v>
+        <v>9.563993994758665</v>
       </c>
       <c r="L7" t="n">
-        <v>1.425545668357698</v>
+        <v>0.1704037822532261</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.270736765909332</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>26.4</v>
@@ -741,10 +756,10 @@
         <v>0.417</v>
       </c>
       <c r="G8" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.299</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.437</v>
       </c>
       <c r="I8" t="n">
         <v>0.391</v>
@@ -753,9 +768,12 @@
         <v>11.98</v>
       </c>
       <c r="K8" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.26</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -766,45 +784,44 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="C9" t="n">
-        <v>27.66218174386577</v>
+        <v>27.78278941232501</v>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>57.1</v>
       </c>
       <c r="E9" t="n">
-        <v>51.28904766151538</v>
+        <v>49.9348091640205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3529535724969095</v>
+        <v>0.3529410102843453</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3139500985350967</v>
+        <v>0.40718289315085</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4638457150437326</v>
+        <v>0.4638711836092106</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3765307206944047</v>
+        <v>0.2684805651045993</v>
       </c>
       <c r="J9" t="n">
-        <v>11.27358878270566</v>
+        <v>12.04086456171943</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2177738084621155</v>
+        <v>14.18324395917328</v>
       </c>
       <c r="L9" t="n">
-        <v>1.139860950012945</v>
+        <v>0.2182077176620001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.016076334386742</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>26</v>
@@ -817,10 +834,10 @@
         <v>0.375</v>
       </c>
       <c r="G10" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.462</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.458</v>
       </c>
       <c r="I10" t="n">
         <v>0.219</v>
@@ -829,9 +846,12 @@
         <v>11.22</v>
       </c>
       <c r="K10" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.21</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>1.03</v>
       </c>
     </row>
@@ -842,45 +862,44 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>19.3</v>
       </c>
       <c r="C11" t="n">
-        <v>28.10636337914401</v>
+        <v>26.28585138370121</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>54.3</v>
       </c>
       <c r="E11" t="n">
-        <v>51.70663107550038</v>
+        <v>46.93933067075282</v>
       </c>
       <c r="F11" t="n">
-        <v>0.42726737886361</v>
+        <v>0.4260422226995274</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4223291410841564</v>
+        <v>0.4080723459151814</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4228345613432486</v>
+        <v>0.414743400956022</v>
       </c>
       <c r="I11" t="n">
-        <v>0.249619732498138</v>
+        <v>0.2674656932042598</v>
       </c>
       <c r="J11" t="n">
-        <v>14.43836320052762</v>
+        <v>12.41002754186107</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2073342231124905</v>
+        <v>16.59334584974526</v>
       </c>
       <c r="L11" t="n">
-        <v>1.053779595918506</v>
+        <v>0.2103048379784909</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9393430918571766</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>24.1</v>
@@ -893,10 +912,10 @@
         <v>0.592</v>
       </c>
       <c r="G12" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.462</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.275</v>
       </c>
       <c r="I12" t="n">
         <v>0.212</v>
@@ -905,9 +924,12 @@
         <v>11.77</v>
       </c>
       <c r="K12" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.19</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -918,45 +940,44 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="C13" t="n">
-        <v>25.13371579273854</v>
+        <v>23.51176785050586</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>52.5</v>
       </c>
       <c r="E13" t="n">
-        <v>53.21297995962338</v>
+        <v>46.7633958332171</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5646673802217235</v>
+        <v>0.5646400387963519</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4319183154886082</v>
+        <v>0.4081406021278218</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2774238755873308</v>
+        <v>0.2774348668124212</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2407195005768916</v>
+        <v>0.2686644667432246</v>
       </c>
       <c r="J13" t="n">
-        <v>12.08416594029973</v>
+        <v>9.680225652654816</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1696755010094156</v>
+        <v>15.30187652682539</v>
       </c>
       <c r="L13" t="n">
-        <v>1.065479746340009</v>
+        <v>0.1733113041324139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.9497726499115328</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
         <v>25</v>
@@ -969,10 +990,10 @@
         <v>0.575</v>
       </c>
       <c r="G14" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.349</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.362</v>
       </c>
       <c r="I14" t="n">
         <v>0.348</v>
@@ -981,9 +1002,12 @@
         <v>13.71</v>
       </c>
       <c r="K14" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.28</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -994,45 +1018,44 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>27.76278505379649</v>
+        <v>25.23030496966835</v>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>52.7</v>
       </c>
       <c r="E15" t="n">
-        <v>51.38050866175099</v>
+        <v>45.16339890750987</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4895808562622534</v>
+        <v>0.4895322440677268</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4458785509964061</v>
+        <v>0.4082020129536323</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3477864506278127</v>
+        <v>0.3477981108388146</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2270175226877116</v>
+        <v>0.2684581236290567</v>
       </c>
       <c r="J15" t="n">
-        <v>15.84288051493021</v>
+        <v>12.71856260735072</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2154872834562253</v>
+        <v>17.85750168530447</v>
       </c>
       <c r="L15" t="n">
-        <v>1.133911947036382</v>
+        <v>0.2236380146139507</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.010773370777353</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
         <v>25.4</v>
@@ -1045,10 +1068,10 @@
         <v>0.417</v>
       </c>
       <c r="G16" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.299</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.422</v>
       </c>
       <c r="I16" t="n">
         <v>0.4</v>
@@ -1057,9 +1080,12 @@
         <v>10.73</v>
       </c>
       <c r="K16" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.25</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -1070,45 +1096,44 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="C17" t="n">
-        <v>25.27048154426537</v>
+        <v>23.73981361760939</v>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>53.9</v>
       </c>
       <c r="E17" t="n">
-        <v>53.33606443205525</v>
+        <v>47.96821205915071</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5530530411996115</v>
+        <v>0.5530268771173869</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4423260554796818</v>
+        <v>0.4082546212494131</v>
       </c>
       <c r="H17" t="n">
-        <v>0.289741640444094</v>
+        <v>0.2897542222913772</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2303934366821492</v>
+        <v>0.268514281186508</v>
       </c>
       <c r="J17" t="n">
-        <v>12.15092219446046</v>
+        <v>10.00696868002612</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1665983891986187</v>
+        <v>14.4605848402101</v>
       </c>
       <c r="L17" t="n">
-        <v>1.165477079263988</v>
+        <v>0.1719358823434577</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.038910648265362</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
         <v>26.1</v>
@@ -1121,10 +1146,10 @@
         <v>0.375</v>
       </c>
       <c r="G18" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.462</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.449</v>
       </c>
       <c r="I18" t="n">
         <v>0.223</v>
@@ -1133,9 +1158,12 @@
         <v>11.23</v>
       </c>
       <c r="K18" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.2</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>1.03</v>
       </c>
     </row>
@@ -1146,45 +1174,44 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="C19" t="n">
-        <v>28.10636337914401</v>
+        <v>26.62483823241804</v>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>55.2</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70663107550038</v>
+        <v>47.691417748631</v>
       </c>
       <c r="F19" t="n">
-        <v>0.42726737886361</v>
+        <v>0.4260496096443453</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4223291410841564</v>
+        <v>0.4081138087886549</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4228345613432486</v>
+        <v>0.4147368189103699</v>
       </c>
       <c r="I19" t="n">
-        <v>0.249619732498138</v>
+        <v>0.2673994692176046</v>
       </c>
       <c r="J19" t="n">
-        <v>14.43836320052762</v>
+        <v>12.65624502403326</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2073342231124905</v>
+        <v>16.25752545944087</v>
       </c>
       <c r="L19" t="n">
-        <v>1.053779595918506</v>
+        <v>0.2103244328114566</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9393430918571766</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
         <v>24.2</v>
@@ -1197,10 +1224,10 @@
         <v>0.592</v>
       </c>
       <c r="G20" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.476</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.269</v>
       </c>
       <c r="I20" t="n">
         <v>0.199</v>
@@ -1209,9 +1236,12 @@
         <v>12.32</v>
       </c>
       <c r="K20" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.19</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -1222,45 +1252,44 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="C21" t="n">
-        <v>25.13371579273854</v>
+        <v>23.74882654647834</v>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E21" t="n">
-        <v>53.21297995962338</v>
+        <v>47.21122078794481</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5646673802217235</v>
+        <v>0.5646490850174007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4319183154886082</v>
+        <v>0.4081633149197274</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2774238755873308</v>
+        <v>0.2774312315609618</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2407195005768916</v>
+        <v>0.2686345178719917</v>
       </c>
       <c r="J21" t="n">
-        <v>12.08416594029973</v>
+        <v>9.766930094496571</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1696755010094156</v>
+        <v>15.20136309172434</v>
       </c>
       <c r="L21" t="n">
-        <v>1.065479746340009</v>
+        <v>0.173316742875904</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9497726499115328</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>25.2</v>
@@ -1273,10 +1302,10 @@
         <v>0.575</v>
       </c>
       <c r="G22" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.354</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.359</v>
       </c>
       <c r="I22" t="n">
         <v>0.348</v>
@@ -1285,9 +1314,12 @@
         <v>13.2</v>
       </c>
       <c r="K22" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.27</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -1298,45 +1330,44 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="C23" t="n">
-        <v>27.74476757840698</v>
+        <v>25.63316143313266</v>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>53.2</v>
       </c>
       <c r="E23" t="n">
-        <v>51.36399869836195</v>
+        <v>45.62767644064039</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4916597557489258</v>
+        <v>0.4916301431619964</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4458785509964061</v>
+        <v>0.4082247762487357</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3458091237480822</v>
+        <v>0.3458157533138584</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2270175226877116</v>
+        <v>0.2684276558901738</v>
       </c>
       <c r="J23" t="n">
-        <v>15.87322631690552</v>
+        <v>12.77709433955118</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2159000325409512</v>
+        <v>17.89909745857343</v>
       </c>
       <c r="L23" t="n">
-        <v>1.137868529966938</v>
+        <v>0.2240332414011722</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.014300283670308</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
         <v>27.2</v>
@@ -1361,9 +1392,12 @@
         <v>8.91</v>
       </c>
       <c r="K24" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.2</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>0.898</v>
       </c>
     </row>
@@ -1374,45 +1408,44 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="C25" t="n">
-        <v>28.53472353064391</v>
+        <v>27.11621586777419</v>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>53.5</v>
       </c>
       <c r="E25" t="n">
-        <v>52.14567854649118</v>
+        <v>47.15729563380649</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3187423450773212</v>
+        <v>0.3187337024673288</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3502488994869671</v>
+        <v>0.3810252524407532</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3373576501707437</v>
+        <v>0.3373777801613979</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3306005440476444</v>
+        <v>0.2878973711163694</v>
       </c>
       <c r="J25" t="n">
-        <v>11.34021736863827</v>
+        <v>9.988066025837547</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2133680882660977</v>
+        <v>14.84017455962314</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9124896181340059</v>
+        <v>0.2217172822352267</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8133966746988125</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
         <v>30.3</v>
@@ -1434,12 +1467,15 @@
         <v>0.13</v>
       </c>
       <c r="J26" t="n">
-        <v>7.550000000000001</v>
+        <v>7.55</v>
       </c>
       <c r="K26" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.24</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>0.9350000000000001</v>
       </c>
     </row>
@@ -1450,45 +1486,44 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>22.4</v>
       </c>
       <c r="C27" t="n">
-        <v>29.61871432469115</v>
+        <v>28.4473127760978</v>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>48.4</v>
       </c>
       <c r="E27" t="n">
-        <v>53.45452712293113</v>
+        <v>43.87621223579572</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2835397349659455</v>
+        <v>0.2836031534256562</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4213530655755419</v>
+        <v>0.381326096016397</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3855613935177321</v>
+        <v>0.3855957386425503</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2229475858150475</v>
+        <v>0.2873623209815407</v>
       </c>
       <c r="J27" t="n">
-        <v>11.36902217938997</v>
+        <v>7.143242777222268</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2404678581172789</v>
+        <v>17.71914712981059</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9400588003411773</v>
+        <v>0.2325889529268386</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8379719473220082</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>28.5</v>
@@ -1513,9 +1548,12 @@
         <v>9.390000000000001</v>
       </c>
       <c r="K28" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.22</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>0.894</v>
       </c>
     </row>
@@ -1526,45 +1564,44 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="C29" t="n">
-        <v>28.92458737343628</v>
+        <v>27.37970491487828</v>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>52.5</v>
       </c>
       <c r="E29" t="n">
-        <v>52.58058331089107</v>
+        <v>46.27249892492147</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3425431078806832</v>
+        <v>0.3425430050626821</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4166677111673128</v>
+        <v>0.3814741357031894</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2922762179745544</v>
+        <v>0.2961273240730448</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2280771741781796</v>
+        <v>0.2872055519621028</v>
       </c>
       <c r="J29" t="n">
-        <v>12.74369995775699</v>
+        <v>9.821994919396824</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2231146843359069</v>
+        <v>16.0934022043141</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9595828882837655</v>
+        <v>0.2149907785899462</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8553757926846588</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
         <v>28.6</v>
@@ -1589,9 +1626,12 @@
         <v>8.619999999999999</v>
       </c>
       <c r="K30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.22</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>0.894</v>
       </c>
     </row>
@@ -1602,45 +1642,44 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="C31" t="n">
-        <v>28.92458737343628</v>
+        <v>27.75134598254282</v>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>51.3</v>
       </c>
       <c r="E31" t="n">
-        <v>52.58058331089107</v>
+        <v>45.46347854124306</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3425431078806832</v>
+        <v>0.3425618903644657</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4166677111673128</v>
+        <v>0.3814223232905416</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2922762179745544</v>
+        <v>0.2960969745661181</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2280771741781796</v>
+        <v>0.2872640273351428</v>
       </c>
       <c r="J31" t="n">
-        <v>12.74369995775699</v>
+        <v>9.208325756024184</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2231146843359069</v>
+        <v>16.99913213332558</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9595828882837655</v>
+        <v>0.2150448660847606</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.8553757926846588</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>real_data</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
         <v>27.9</v>
@@ -1665,9 +1704,12 @@
         <v>8.220000000000001</v>
       </c>
       <c r="K32" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.2</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>0.898</v>
       </c>
     </row>
@@ -1678,37 +1720,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="C33" t="n">
-        <v>28.53472353064391</v>
+        <v>28.05658877244437</v>
       </c>
       <c r="D33" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E33" t="n">
-        <v>52.14567854649118</v>
+        <v>44.72855144318952</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3187423450773212</v>
+        <v>0.3187828285729435</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3502488994869671</v>
+        <v>0.3808743915476092</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3373576501707437</v>
+        <v>0.3372630719924229</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3306005440476444</v>
+        <v>0.2880680268804116</v>
       </c>
       <c r="J33" t="n">
-        <v>11.34021736863827</v>
+        <v>8.3089622723815</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2133680882660977</v>
+        <v>17.38529247057847</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9124896181340059</v>
+        <v>0.2218648500866797</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8133966746988125</v>
       </c>
     </row>
   </sheetData>
